--- a/Testing/2022_GandyGoose_SingleGame_Stats.xlsx
+++ b/Testing/2022_GandyGoose_SingleGame_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>DPP</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>PP</t>
+  </si>
+  <si>
+    <t>D%</t>
+  </si>
+  <si>
+    <t>D%AA</t>
+  </si>
+  <si>
+    <t>O%</t>
+  </si>
+  <si>
+    <t>O%AA</t>
   </si>
   <si>
     <t>G</t>
@@ -473,13 +485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,10 +540,22 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -543,16 +567,16 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>-6.153846153846153</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>6.153846153846153</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,30 +585,42 @@
         <v>0.2</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3333333333333334</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="O2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>-0.142857142857143</v>
+        <v>50</v>
       </c>
       <c r="Q2">
-        <v>0.1904761904761904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>5.555555555555554</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="T2">
+        <v>-2.040816326530611</v>
+      </c>
+      <c r="U2">
+        <v>3.514739229024944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -596,16 +632,16 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>-26.15384615384615</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.15384615384615</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -620,24 +656,36 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-0.8571428571428572</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-1.19047619047619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>-5.555555555555556</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>50</v>
+      </c>
+      <c r="T3">
+        <v>-12.24489795918367</v>
+      </c>
+      <c r="U3">
+        <v>-17.80045351473923</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -649,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="F4">
-        <v>0.2222222222222222</v>
+        <v>20.51282051282052</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>-20.51282051282051</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -667,30 +715,42 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>3</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Q4">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>100</v>
+      </c>
+      <c r="T4">
+        <v>12.24489795918367</v>
+      </c>
+      <c r="U4">
+        <v>12.24489795918367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -702,48 +762,60 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>16.34615384615385</v>
       </c>
       <c r="G5">
+        <v>37.5</v>
+      </c>
+      <c r="H5">
+        <v>-16.34615384615385</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="L5">
         <v>0.5</v>
       </c>
-      <c r="I5">
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="N5">
         <v>0.5</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.2</v>
-      </c>
-      <c r="M5">
-        <v>-0.6666666666666665</v>
-      </c>
-      <c r="N5">
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
+      </c>
+      <c r="Q5">
+        <v>-11.11111111111111</v>
+      </c>
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Q5">
-        <v>0.1904761904761906</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>100</v>
+      </c>
+      <c r="T5">
+        <v>12.24489795918367</v>
+      </c>
+      <c r="U5">
+        <v>1.133786848072559</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -755,16 +827,16 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="F6">
-        <v>0.1666666666666667</v>
+        <v>20.51282051282052</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>-20.51282051282051</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -773,30 +845,42 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>-0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6">
-        <v>0.5714285714285714</v>
+        <v>25</v>
       </c>
       <c r="Q6">
-        <v>0.2380952380952381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>-5.555555555555557</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>100</v>
+      </c>
+      <c r="T6">
+        <v>8.163265306122449</v>
+      </c>
+      <c r="U6">
+        <v>2.607709750566892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -808,16 +892,16 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-17.58241758241758</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>17.58241758241758</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -826,30 +910,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3333333333333334</v>
+        <v>0</v>
       </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>50</v>
+      </c>
+      <c r="Q7">
+        <v>5.555555555555554</v>
+      </c>
+      <c r="R7">
         <v>4</v>
       </c>
-      <c r="O7">
-        <v>0.8</v>
-      </c>
-      <c r="P7">
-        <v>0.4285714285714287</v>
-      </c>
-      <c r="Q7">
-        <v>0.7619047619047621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>80</v>
+      </c>
+      <c r="T7">
+        <v>6.122448979591836</v>
+      </c>
+      <c r="U7">
+        <v>11.67800453514739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -861,48 +957,60 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>20.51282051282052</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="H8">
+        <v>-20.51282051282051</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.1666666666666667</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <v>0.1666666666666667</v>
       </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.5</v>
-      </c>
-      <c r="M8">
-        <v>0.6666666666666667</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
       <c r="O8">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>-0.4285714285714286</v>
+        <v>50</v>
       </c>
       <c r="Q8">
-        <v>0.2380952380952381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>50</v>
+      </c>
+      <c r="T8">
+        <v>-6.122448979591837</v>
+      </c>
+      <c r="U8">
+        <v>4.988662131519272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -914,16 +1022,16 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>20.51282051282052</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>-20.51282051282051</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -932,30 +1040,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3333333333333334</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9">
-        <v>0.2857142857142857</v>
+        <v>50</v>
       </c>
       <c r="Q9">
-        <v>0.6190476190476191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>5.555555555555554</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>100</v>
+      </c>
+      <c r="T9">
+        <v>4.081632653061225</v>
+      </c>
+      <c r="U9">
+        <v>9.637188208616779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -967,16 +1087,16 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>3.846153846153847</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-3.846153846153847</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -985,30 +1105,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>-0.142857142857143</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="Q10">
-        <v>-0.142857142857143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="T10">
+        <v>-2.040816326530611</v>
+      </c>
+      <c r="U10">
+        <v>-2.040816326530611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1020,48 +1152,60 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="H11">
+        <v>12.82051282051282</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.5</v>
-      </c>
-      <c r="M11">
-        <v>0.3333333333333334</v>
-      </c>
-      <c r="N11">
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>50</v>
+      </c>
+      <c r="Q11">
+        <v>5.555555555555554</v>
+      </c>
+      <c r="R11">
         <v>3</v>
       </c>
-      <c r="O11">
-        <v>0.75</v>
-      </c>
-      <c r="P11">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="Q11">
-        <v>0.4761904761904762</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>75</v>
+      </c>
+      <c r="T11">
+        <v>2.040816326530611</v>
+      </c>
+      <c r="U11">
+        <v>7.596371882086165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1073,16 +1217,16 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>-21.15384615384615</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>21.15384615384615</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1091,30 +1235,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.6666666666666667</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>-0.142857142857143</v>
+        <v>100</v>
       </c>
       <c r="Q12">
-        <v>0.5238095238095237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
+        <v>66.66666666666667</v>
+      </c>
+      <c r="T12">
+        <v>-2.040816326530611</v>
+      </c>
+      <c r="U12">
+        <v>9.070294784580497</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1126,16 +1282,16 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3.846153846153847</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>-3.846153846153847</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1150,24 +1306,36 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>-0.4285714285714286</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>-1.095238095238095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>-11.11111111111111</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>50</v>
+      </c>
+      <c r="T13">
+        <v>-6.122448979591837</v>
+      </c>
+      <c r="U13">
+        <v>-17.23356009070295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1179,16 +1347,16 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-21.15384615384615</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>21.15384615384615</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1203,24 +1371,36 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>-1.142857142857143</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>-1.476190476190476</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>-5.555555555555556</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="T14">
+        <v>-16.3265306122449</v>
+      </c>
+      <c r="U14">
+        <v>-21.88208616780046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1232,16 +1412,16 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>-12.82051282051282</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>66.66666666666667</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.82051282051282</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1256,24 +1436,36 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>-0.4285714285714286</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>-0.7619047619047619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>-5.555555555555556</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>50</v>
+      </c>
+      <c r="T15">
+        <v>-6.122448979591837</v>
+      </c>
+      <c r="U15">
+        <v>-11.67800453514739</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1285,16 +1477,16 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1309,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>-0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1318,15 +1510,27 @@
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>-11.11111111111111</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <v>-0</v>
       </c>
-      <c r="Q16">
-        <v>-0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="U16">
+        <v>-11.11111111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1338,16 +1542,16 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>0.1666666666666667</v>
+        <v>3.846153846153847</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>-3.846153846153847</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1356,30 +1560,42 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>3</v>
       </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="Q17">
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>100</v>
+      </c>
+      <c r="T17">
+        <v>12.24489795918367</v>
+      </c>
+      <c r="U17">
+        <v>12.24489795918367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1391,16 +1607,16 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>0.2</v>
+        <v>-26.15384615384615</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>26.15384615384615</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1409,30 +1625,42 @@
         <v>0.2</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="N18">
+        <v>0.2</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="Q18">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="R18">
         <v>3</v>
       </c>
-      <c r="O18">
-        <v>0.75</v>
-      </c>
-      <c r="P18">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="Q18">
-        <v>0.8095238095238095</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18">
+        <v>75</v>
+      </c>
+      <c r="T18">
+        <v>2.040816326530611</v>
+      </c>
+      <c r="U18">
+        <v>13.15192743764172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1447,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>-46.15384615384615</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1468,19 +1696,31 @@
         <v>0</v>
       </c>
       <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>-0</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0.5</v>
-      </c>
-      <c r="P19">
-        <v>-0.4285714285714286</v>
-      </c>
-      <c r="Q19">
-        <v>-0.4285714285714286</v>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>50</v>
+      </c>
+      <c r="T19">
+        <v>-6.122448979591837</v>
+      </c>
+      <c r="U19">
+        <v>-6.122448979591837</v>
       </c>
     </row>
   </sheetData>
